--- a/biology/Histoire de la zoologie et de la botanique/David_Armitage_Bannerman/David_Armitage_Bannerman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Armitage_Bannerman/David_Armitage_Bannerman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Armitage Bannerman est un ornithologue britannique, né le 27 novembre 1886 et mort le 6 avril 1979.
 Il travaille au Natural History Museum de Londres et fait paraître The Birds of Tropical West Africa (8 volumes, 1930-1951), The Birds of West and Equatorial Africa (2 volumes, 1953), The Birds of the British Isles (12 volumes, 1933-1963) et The Birds of the Atlantic Islands (4 volumes, 1963-1968). Il préside le British Ornithologists' Club de 1932 à 1935.
@@ -512,7 +524,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>William Serle (1979). David Armitage Bannerman (1886-1979), Ibis, 121 (4) : 521-520.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « David Armitage Bannerman » (voir la liste des auteurs).</t>
         </is>
